--- a/Final Project/api/data/imports/holdings.xlsx
+++ b/Final Project/api/data/imports/holdings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA4DF3D-CCE2-4F4A-897F-85DF0F7CAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{FBA4DF3D-CCE2-4F4A-897F-85DF0F7CAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E9B653-5C84-48DA-B2FE-37FE0597BCEF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5455CC12-D9FA-47FB-9A9F-5CDF04986C20}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
